--- a/pred_ohlcv/54_21/2019-10-19 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2526.021100530003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2577.767600530003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2629.693239160003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2701.274139160003</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2434.533339160002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2331.213639160002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2331.726039160002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2392.726039160002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-9025.329622990002</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-9029.329622990002</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9180.675022990003</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9331.133322990003</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-9373.711422990003</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-8766.625722990004</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-8909.923922990003</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-8909.823922990003</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-9357.868222990004</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-9357.868222990004</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-9861.614230570003</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-9896.614230570003</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-10038.11423057</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-10657.11423057</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10558.61417578</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-10625.61417578</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-10712.12937578</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-10608.17687578</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-10585.21087578</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-10435.59377578</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1049.84592888</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1123.17552888</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2238.11692888</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2526.021100530003</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2577.767600530003</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2629.693239160003</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2713.423239160003</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2701.274139160003</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2434.533339160002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2331.213639160002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2320.932739160002</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2331.726039160002</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2392.726039160002</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-9110.528122990003</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-9076.502522990002</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-9025.329622990002</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-9029.329622990002</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-9023.329622990002</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-9480.675022990003</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9180.675022990003</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9331.133322990003</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-8766.725722990004</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-8909.923922990003</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-9759.114230570003</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-10038.11423057</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-10303.11423057</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-10657.11423057</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10559.11423057</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10558.61417578</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-10712.12937578</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-10585.21087578</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
